--- a/opm_hero_property/heroes/92.xlsx
+++ b/opm_hero_property/heroes/92.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11136</v>
       </c>
       <c r="D4" t="n">
-        <v>11136</v>
+        <v>11070</v>
       </c>
       <c r="E4" t="n">
         <v>218</v>
@@ -1304,7 +1305,7 @@
         <v>12424</v>
       </c>
       <c r="D5" t="n">
-        <v>12424</v>
+        <v>12283</v>
       </c>
       <c r="E5" t="n">
         <v>328</v>
@@ -1411,7 +1412,7 @@
         <v>13940</v>
       </c>
       <c r="D6" t="n">
-        <v>13940</v>
+        <v>13711</v>
       </c>
       <c r="E6" t="n">
         <v>449</v>
@@ -1518,7 +1519,7 @@
         <v>15682</v>
       </c>
       <c r="D7" t="n">
-        <v>15682</v>
+        <v>16690</v>
       </c>
       <c r="E7" t="n">
         <v>842</v>
@@ -1625,7 +1626,7 @@
         <v>17652</v>
       </c>
       <c r="D8" t="n">
-        <v>17652</v>
+        <v>20811</v>
       </c>
       <c r="E8" t="n">
         <v>1247</v>
@@ -1732,7 +1733,7 @@
         <v>19925</v>
       </c>
       <c r="D9" t="n">
-        <v>19925</v>
+        <v>26359</v>
       </c>
       <c r="E9" t="n">
         <v>1646</v>
@@ -1839,7 +1840,7 @@
         <v>21137</v>
       </c>
       <c r="D10" t="n">
-        <v>21137</v>
+        <v>30979</v>
       </c>
       <c r="E10" t="n">
         <v>1945</v>
@@ -1946,7 +1947,7 @@
         <v>22576</v>
       </c>
       <c r="D11" t="n">
-        <v>22576</v>
+        <v>36652</v>
       </c>
       <c r="E11" t="n">
         <v>2269</v>
@@ -2053,7 +2054,7 @@
         <v>25607</v>
       </c>
       <c r="D12" t="n">
-        <v>25607</v>
+        <v>46749</v>
       </c>
       <c r="E12" t="n">
         <v>2793</v>
@@ -2160,7 +2161,7 @@
         <v>26213</v>
       </c>
       <c r="D13" t="n">
-        <v>26213</v>
+        <v>48176</v>
       </c>
       <c r="E13" t="n">
         <v>3142</v>
@@ -2267,7 +2268,7 @@
         <v>26819</v>
       </c>
       <c r="D14" t="n">
-        <v>26819</v>
+        <v>49603</v>
       </c>
       <c r="E14" t="n">
         <v>3491</v>
@@ -2374,7 +2375,7 @@
         <v>27425</v>
       </c>
       <c r="D15" t="n">
-        <v>27425</v>
+        <v>51030</v>
       </c>
       <c r="E15" t="n">
         <v>3840</v>
@@ -2481,7 +2482,7 @@
         <v>28031</v>
       </c>
       <c r="D16" t="n">
-        <v>28031</v>
+        <v>52457</v>
       </c>
       <c r="E16" t="n">
         <v>4189</v>
@@ -2588,7 +2589,7 @@
         <v>28637</v>
       </c>
       <c r="D17" t="n">
-        <v>28637</v>
+        <v>53884</v>
       </c>
       <c r="E17" t="n">
         <v>4538</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>92</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35969.18294799999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4238.932878000001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2521.5681488</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>92</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>48710.129491</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6510.9473976</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3563.065296</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>92</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>84440.359908</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11949.676025</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7059.856736</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>92</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>84440.359908</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11949.676025</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7059.856736</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2070</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>92</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>70252.45638799999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11029.675025</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6022.300896</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>297377.51133</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43132.12545599999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>28669.5661904</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3010</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>233726.58613</v>
+      </c>
+      <c r="U8" t="n">
+        <v>39251.29281599999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>23290.3936144</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>249639.31743</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40221.500976</v>
+      </c>
+      <c r="V9" t="n">
+        <v>24635.1867584</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2260</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>265552.04873</v>
+      </c>
+      <c r="U10" t="n">
+        <v>41191.709136</v>
+      </c>
+      <c r="V10" t="n">
+        <v>25979.9799024</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>92</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>281464.78003</v>
+      </c>
+      <c r="U11" t="n">
+        <v>42161.917296</v>
+      </c>
+      <c r="V11" t="n">
+        <v>27324.7730464</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>92</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>281464.78003</v>
+      </c>
+      <c r="U12" t="n">
+        <v>42161.917296</v>
+      </c>
+      <c r="V12" t="n">
+        <v>27324.7730464</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2690</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>92</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>416614.614744</v>
+      </c>
+      <c r="U13" t="n">
+        <v>62455.4833138</v>
+      </c>
+      <c r="V13" t="n">
+        <v>46443.2459712</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2830</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>92</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>416614.614744</v>
+      </c>
+      <c r="U14" t="n">
+        <v>62455.4833138</v>
+      </c>
+      <c r="V14" t="n">
+        <v>46443.2459712</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>92</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1028184.018407</v>
+      </c>
+      <c r="U15" t="n">
+        <v>145948.1887716</v>
+      </c>
+      <c r="V15" t="n">
+        <v>138043.0848</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>92</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5155442.965694</v>
+      </c>
+      <c r="U16" t="n">
+        <v>800121.0982913</v>
+      </c>
+      <c r="V16" t="n">
+        <v>649625.7947263999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>92</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8440982.195627</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1304832.6189127</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1060242.1275648</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4650</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>92</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>216794.593957</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41068.30737729999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>21107.9445056</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>92</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>304235.216808</v>
+      </c>
+      <c r="U19" t="n">
+        <v>50960.96653120001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>30786.1800448</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>92</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>394388.96247</v>
+      </c>
+      <c r="U20" t="n">
+        <v>62666.8557631</v>
+      </c>
+      <c r="V20" t="n">
+        <v>43426.8424528</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>92</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>463232.513388</v>
+      </c>
+      <c r="U21" t="n">
+        <v>71525.6989174</v>
+      </c>
+      <c r="V21" t="n">
+        <v>53299.0853984</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>92</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>534626.6333</v>
+      </c>
+      <c r="U22" t="n">
+        <v>84319.70633419999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>66770.5494624</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>92</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>682062.214863</v>
+      </c>
+      <c r="U23" t="n">
+        <v>110583.3724381</v>
+      </c>
+      <c r="V23" t="n">
+        <v>94205.93297920001</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/92.xlsx
+++ b/opm_hero_property/heroes/92.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35969.18294799999</v>
+        <v>5290319.965694</v>
       </c>
       <c r="U2" t="n">
-        <v>4238.932878000001</v>
+        <v>823849.0982913</v>
       </c>
       <c r="V2" t="n">
-        <v>2521.5681488</v>
+        <v>671465.7947263999</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>10219532.30779</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2026538.95579077</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>14851764.56358077</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>48710.129491</v>
+        <v>682062.214863</v>
       </c>
       <c r="U3" t="n">
-        <v>6510.9473976</v>
+        <v>110583.3724381</v>
       </c>
       <c r="V3" t="n">
-        <v>3563.065296</v>
+        <v>94205.93297920001</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>2000</v>
+        <v>3740</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1157187.18533</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>230767.06398629</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2002729.09931629</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>84440.359908</v>
+        <v>7387.9028</v>
       </c>
       <c r="U4" t="n">
-        <v>11949.676025</v>
+        <v>1554.186</v>
       </c>
       <c r="V4" t="n">
-        <v>7059.856736</v>
+        <v>516.7471</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18313.682025</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>22812.582025</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>84440.359908</v>
+        <v>19532.0351</v>
       </c>
       <c r="U5" t="n">
-        <v>11949.676025</v>
+        <v>3875.3512</v>
       </c>
       <c r="V5" t="n">
-        <v>7059.856736</v>
+        <v>1523.007</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2070</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>45819.14863</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>57725.94863</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>70252.45638799999</v>
+        <v>55897.7588</v>
       </c>
       <c r="U6" t="n">
-        <v>11029.675025</v>
+        <v>9666.674999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>6022.300896</v>
+        <v>4996.362</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>107838.3978</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9157</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>155894.3978</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>297377.51133</v>
+        <v>55897.7588</v>
       </c>
       <c r="U7" t="n">
-        <v>43132.12545599999</v>
+        <v>9666.674999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>28669.5661904</v>
+        <v>4996.362</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>3010</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>107838.3978</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>156132.3978</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>233726.58613</v>
+        <v>56252.456388</v>
       </c>
       <c r="U8" t="n">
-        <v>39251.29281599999</v>
+        <v>9689.675024999999</v>
       </c>
       <c r="V8" t="n">
-        <v>23290.3936144</v>
+        <v>5022.300896</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>107838.3978</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>662.5464125000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>156794.9442125</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,21 +8116,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>249639.31743</v>
+        <v>231346.313</v>
       </c>
       <c r="U9" t="n">
-        <v>40221.500976</v>
+        <v>39311.272</v>
       </c>
       <c r="V9" t="n">
-        <v>24635.1867584</v>
+        <v>23282.9143</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
@@ -7940,7 +8148,7 @@
         <v>2880</v>
       </c>
       <c r="AB9" t="n">
-        <v>2260</v>
+        <v>2010</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>479757.1970250001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>647783.847025</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,21 +8251,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>265552.04873</v>
+        <v>232937.58613</v>
       </c>
       <c r="U10" t="n">
-        <v>41191.709136</v>
+        <v>39408.29281599999</v>
       </c>
       <c r="V10" t="n">
-        <v>25979.9799024</v>
+        <v>23417.3936144</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -8051,7 +8283,7 @@
         <v>2880</v>
       </c>
       <c r="AB10" t="n">
-        <v>2510</v>
+        <v>2010</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>479757.1970250001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3033.9728182</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>650817.8198431999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,21 +8386,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>281464.78003</v>
+        <v>248850.31743</v>
       </c>
       <c r="U11" t="n">
-        <v>42161.917296</v>
+        <v>40378.500976</v>
       </c>
       <c r="V11" t="n">
-        <v>27324.7730464</v>
+        <v>24762.1867584</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -8162,7 +8418,7 @@
         <v>2880</v>
       </c>
       <c r="AB11" t="n">
-        <v>2760</v>
+        <v>2260</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>479757.1970250001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>33811.2010002</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>681595.0480252</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,27 +8521,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>281464.78003</v>
+        <v>264763.04873</v>
       </c>
       <c r="U12" t="n">
-        <v>42161.917296</v>
+        <v>41348.709136</v>
       </c>
       <c r="V12" t="n">
-        <v>27324.7730464</v>
+        <v>26106.9799024</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -8273,7 +8553,7 @@
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>2690</v>
+        <v>2510</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>479757.1970250001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>64588.4291822</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>712372.2762072</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,23 +8660,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>416614.614744</v>
+        <v>280675.78003</v>
       </c>
       <c r="U13" t="n">
-        <v>62455.4833138</v>
+        <v>42318.917296</v>
       </c>
       <c r="V13" t="n">
-        <v>46443.2459712</v>
+        <v>27451.7730464</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8384,31 +8688,55 @@
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2830</v>
+        <v>2760</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>479757.1970250001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>95365.65736420001</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>743149.5043892001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,23 +8795,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>416614.614744</v>
+        <v>280675.78003</v>
       </c>
       <c r="U14" t="n">
-        <v>62455.4833138</v>
+        <v>42318.917296</v>
       </c>
       <c r="V14" t="n">
-        <v>46443.2459712</v>
+        <v>27451.7730464</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8495,31 +8823,55 @@
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>2900</v>
+        <v>2690</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>479757.1970250001</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>95365.65736420001</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38508</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>742911.5043892001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,23 +8930,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1028184.018407</v>
+        <v>419114.614744</v>
       </c>
       <c r="U15" t="n">
-        <v>145948.1887716</v>
+        <v>63263.4833138</v>
       </c>
       <c r="V15" t="n">
-        <v>138043.0848</v>
+        <v>47217.2459712</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8606,31 +8958,55 @@
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>3180</v>
+        <v>2830</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>734842.46449</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>146311.04945362</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111462</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1139995.31394362</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,23 +9065,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5155442.965694</v>
+        <v>419114.614744</v>
       </c>
       <c r="U16" t="n">
-        <v>800121.0982913</v>
+        <v>63263.4833138</v>
       </c>
       <c r="V16" t="n">
-        <v>649625.7947263999</v>
+        <v>47217.2459712</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8717,31 +9093,55 @@
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>3740</v>
+        <v>2900</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>734842.46449</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>146311.04945362</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111700</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1140233.31394362</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,23 +9200,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8440982.195627</v>
+        <v>1065679.018407</v>
       </c>
       <c r="U17" t="n">
-        <v>1304832.6189127</v>
+        <v>152805.1887716</v>
       </c>
       <c r="V17" t="n">
-        <v>1060242.1275648</v>
+        <v>144676.0848</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8828,64 +9228,88 @@
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>4650</v>
+        <v>3180</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1673730.43098</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>334099.02755104</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>688289.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2965975.80853104</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>216794.593957</v>
+        <v>5290319.965694</v>
       </c>
       <c r="U18" t="n">
-        <v>41068.30737729999</v>
+        <v>823849.0982913</v>
       </c>
       <c r="V18" t="n">
-        <v>21107.9445056</v>
+        <v>671465.7947263999</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>10219532.30779</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2026538.95579077</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>14851764.56358077</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,37 +9456,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>304235.216808</v>
+        <v>8750700.195627</v>
       </c>
       <c r="U19" t="n">
-        <v>50960.96653120001</v>
+        <v>1358865.6189127</v>
       </c>
       <c r="V19" t="n">
-        <v>30786.1800448</v>
+        <v>1109474.1275648</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -9050,31 +9498,55 @@
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>2190</v>
+        <v>4650</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>16587809.76481</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3287717.93481223</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3474140.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>24525400.69962223</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>394388.96247</v>
+        <v>202794.593957</v>
       </c>
       <c r="U20" t="n">
-        <v>62666.8557631</v>
+        <v>39728.30737729999</v>
       </c>
       <c r="V20" t="n">
-        <v>43426.8424528</v>
+        <v>20107.9445056</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2510</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>514697.86439</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3198.43137757</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32014.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>597346.09576757</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>463232.513388</v>
+        <v>274835.216808</v>
       </c>
       <c r="U21" t="n">
-        <v>71525.6989174</v>
+        <v>48146.96653120001</v>
       </c>
       <c r="V21" t="n">
-        <v>53299.0853984</v>
+        <v>28686.1800448</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>2900</v>
+        <v>1515</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>604909.55316</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>42272.86797088</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>64028.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>779347.0711308802</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,37 +9861,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>534626.6333</v>
+        <v>394388.96247</v>
       </c>
       <c r="U22" t="n">
-        <v>84319.70633419999</v>
+        <v>62666.8557631</v>
       </c>
       <c r="V22" t="n">
-        <v>66770.5494624</v>
+        <v>43426.8424528</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9383,31 +9903,55 @@
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>3180</v>
+        <v>2510</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>757114.198605</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>102130.91273399</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>91895.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1088682.61133899</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,23 +10010,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>682062.214863</v>
+        <v>463232.513388</v>
       </c>
       <c r="U23" t="n">
-        <v>110583.3724381</v>
+        <v>71525.6989174</v>
       </c>
       <c r="V23" t="n">
-        <v>94205.93297920001</v>
+        <v>53299.0853984</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9494,31 +10038,325 @@
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>3740</v>
+        <v>2900</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>824832.451195</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>164305.37576386</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>142670</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1276331.07695886</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>92</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>534626.6333</v>
+      </c>
+      <c r="U24" t="n">
+        <v>84319.70633419999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>66770.5494624</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>932246.522835</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>185769.99357978</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>239067.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1514416.76641478</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>92</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>682062.214863</v>
+      </c>
+      <c r="U25" t="n">
+        <v>110583.3724381</v>
+      </c>
+      <c r="V25" t="n">
+        <v>94205.93297920001</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1157187.18533</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>230767.06398629</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2002729.09931629</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/92.xlsx
+++ b/opm_hero_property/heroes/92.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,97161;31,6139;41,4546</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,13638</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,11609;31,741;41,599</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1798</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>97161.05250000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>6139.6032</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>4546.2923</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>13638.8769</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>11609.9814</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>741.0408</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>599.6155</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>1798.8465</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,97169;31,6140;41,4546</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,13640</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,11618;31,741;41,600</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1800</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>97169.63080000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>6140.5464</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>4546.817</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>13640.451</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>11618.5597</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>741.984</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>600.1401999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>1800.4206</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,102721;31,6827;41,5021</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,15064</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,12217;31,815;41,652</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,1957</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>102721.57139306</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>6827.834357760001</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>5021.605728699999</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>15064.8171861</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>12217.09327637</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>815.99526912</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>652.6345110999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>1957.9035333</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,109010;31,7606;41,5559</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,16679</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,12894;31,899;41,712</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,2136</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>109010.7908529</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>7606.927471840001</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5559.777407029999</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>16679.33222109</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>12894.16247205</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>899.7535460800001</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>712.07429359</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>2136.22288077</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,116411;31,8523;41,6193</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,18579</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6088;31,1333;41,469</t>
+          <t>21,13690;31,998;41,782</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6088;31,1333;41,469</t>
+          <t>21,0;31,0;41,2346</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3044;31,666;41,234</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>116411.46327698</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>8523.898620399999</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>6193.303428509999</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>18579.91028553</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6088</v>
+        <v>13690.29220721</v>
       </c>
       <c r="X6" t="n">
-        <v>1333</v>
+        <v>998.3026348000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>469</v>
+        <v>782.0148680299999</v>
       </c>
       <c r="Z6" t="n">
-        <v>6088</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1333</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>469</v>
+        <v>2346.04460409</v>
       </c>
       <c r="AC6" t="n">
-        <v>3044</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,128409;31,9578;41,7516</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,22548</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6668;31,1486;41,557</t>
+          <t>21,14994;31,1112;41,929</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6668;31,1486;41,557</t>
+          <t>21,0;31,0;41,2787</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3334;31,743;41,278</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>128409.92755198</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>9578.92809612</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>7516.097972899999</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>22548.2939187</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6668</v>
+        <v>14994.87259471</v>
       </c>
       <c r="X7" t="n">
-        <v>1486</v>
+        <v>1112.90254044</v>
       </c>
       <c r="Y7" t="n">
-        <v>557</v>
+        <v>929.0943937</v>
       </c>
       <c r="Z7" t="n">
-        <v>6668</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1486</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>557</v>
+        <v>2787.2831811</v>
       </c>
       <c r="AC7" t="n">
-        <v>3334</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,143913;31,10771;41,9345</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,28036</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7415;31,1658;41,679</t>
+          <t>21,16673;31,1241;41,1131</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7415;31,1658;41,679</t>
+          <t>21,0;31,0;41,3395</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3707;31,829;41,339</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>143913.43052622</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>10771.28540632</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>9345.36113951</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>28036.08341853</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7415</v>
+        <v>16673.32247919</v>
       </c>
       <c r="X8" t="n">
-        <v>1658</v>
+        <v>1241.74305784</v>
       </c>
       <c r="Y8" t="n">
-        <v>679</v>
+        <v>1131.93205103</v>
       </c>
       <c r="Z8" t="n">
-        <v>7415</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>679</v>
+        <v>3395.79615309</v>
       </c>
       <c r="AC8" t="n">
-        <v>3707</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,163858;31,12146;41,11807</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,35422</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8371;31,1856;41,843</t>
+          <t>21,18824;31,1389;41,1404</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8371;31,1856;41,843</t>
+          <t>21,0;31,0;41,4212</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4185;31,928;41,421</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>163858.81035742</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>12146.2820755</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>11807.35729019</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>35422.07187057</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8371</v>
+        <v>18824.07952159</v>
       </c>
       <c r="X9" t="n">
-        <v>1856</v>
+        <v>1389.6464935</v>
       </c>
       <c r="Y9" t="n">
-        <v>843</v>
+        <v>1404.31191307</v>
       </c>
       <c r="Z9" t="n">
-        <v>8371</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1856</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>843</v>
+        <v>4212.93573921</v>
       </c>
       <c r="AC9" t="n">
-        <v>4185</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>928</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,178798;31,12879;41,13857</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,41572</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9088;31,1961;41,979</t>
+          <t>21,20435;31,1468;41,1631</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9088;31,1961;41,979</t>
+          <t>21,0;31,0;41,4893</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4544;31,980;41,489</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>178798.67749954</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>12879.38091142</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>13857.50442439</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>41572.51327317</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9088</v>
+        <v>20435.08978633</v>
       </c>
       <c r="X10" t="n">
-        <v>1961</v>
+        <v>1468.43956654</v>
       </c>
       <c r="Y10" t="n">
-        <v>979</v>
+        <v>1631.09436567</v>
       </c>
       <c r="Z10" t="n">
-        <v>9088</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1961</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>979</v>
+        <v>4893.283097009999</v>
       </c>
       <c r="AC10" t="n">
-        <v>4544</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,197024;31,13749;41,16374</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,49124</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,9960;31,2086;41,1146</t>
+          <t>21,22397;31,1561;41,1909</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,9960;31,2086;41,1146</t>
+          <t>21,0;31,0;41,5727</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,4980;31,1043;41,573</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>197024.40379368</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>13749.62262816</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>16374.67205132</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>49124.01615396</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>9960</v>
+        <v>22397.55746436</v>
       </c>
       <c r="X11" t="n">
-        <v>2086</v>
+        <v>1561.82815392</v>
       </c>
       <c r="Y11" t="n">
-        <v>1146</v>
+        <v>1909.31224396</v>
       </c>
       <c r="Z11" t="n">
-        <v>9960</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2086</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1146</v>
+        <v>5727.93673188</v>
       </c>
       <c r="AC11" t="n">
-        <v>4980</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,230603;31,15582;41,20854</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,62562</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,11566;31,2349;41,1443</t>
+          <t>21,26008;31,1758;41,2403</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,11566;31,2349;41,1443</t>
+          <t>21,0;31,0;41,7211</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,5783;31,1174;41,721</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>230603.4631681</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>15582.56777162</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>20854.12118009</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>62562.36354026999</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11566</v>
+        <v>26008.07663245</v>
       </c>
       <c r="X12" t="n">
-        <v>2349</v>
+        <v>1758.46903394</v>
       </c>
       <c r="Y12" t="n">
-        <v>1443</v>
+        <v>2403.80180777</v>
       </c>
       <c r="Z12" t="n">
-        <v>11566</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2349</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1443</v>
+        <v>7211.40542331</v>
       </c>
       <c r="AC12" t="n">
-        <v>5783</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1174</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,235800;31,15950;41,21489</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,64467</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,11823;31,2403;41,1486</t>
+          <t>21,26585;31,1799;41,2475</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,11823;31,2403;41,1486</t>
+          <t>21,0;31,0;41,7426</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,5911;31,1201;41,743</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>235800.9046637</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>15950.41408958</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>21489.06956416</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>64467.20869248</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>11823</v>
+        <v>26585.76028865</v>
       </c>
       <c r="X13" t="n">
-        <v>2403</v>
+        <v>1799.16247046</v>
       </c>
       <c r="Y13" t="n">
-        <v>1486</v>
+        <v>2475.55941248</v>
       </c>
       <c r="Z13" t="n">
-        <v>11823</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2403</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>1486</v>
+        <v>7426.67823744</v>
       </c>
       <c r="AC13" t="n">
-        <v>5911</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1201</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,241007;31,16318;41,22123</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,66371</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,12080;31,2457;41,1529</t>
+          <t>21,27164;31,1839;41,2547</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,12080;31,2457;41,1529</t>
+          <t>21,0;31,0;41,7641</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6040;31,1228;41,764</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>241007.92018744</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>16318.26040754</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>22123.95964823</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>66371.87894469</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>12080</v>
+        <v>27164.46286588</v>
       </c>
       <c r="X14" t="n">
-        <v>2457</v>
+        <v>1839.85590698</v>
       </c>
       <c r="Y14" t="n">
-        <v>1529</v>
+        <v>2547.25871719</v>
       </c>
       <c r="Z14" t="n">
-        <v>12080</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2457</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>1529</v>
+        <v>7641.776151569999</v>
       </c>
       <c r="AC14" t="n">
-        <v>6040</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,246205;31,16686;41,22758</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,68276</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,12337;31,2512;41,1572</t>
+          <t>21,27742;31,1880;41,2619</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,12337;31,2512;41,1572</t>
+          <t>21,0;31,0;41,7857</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6168;31,1256;41,786</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>246205.36168304</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>16686.1329255</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>22758.9080323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>68276.7240969</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>12337</v>
+        <v>27742.14652208</v>
       </c>
       <c r="X15" t="n">
-        <v>2512</v>
+        <v>1880.5755435</v>
       </c>
       <c r="Y15" t="n">
-        <v>1572</v>
+        <v>2619.0163219</v>
       </c>
       <c r="Z15" t="n">
-        <v>12337</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2512</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>1572</v>
+        <v>7857.0489657</v>
       </c>
       <c r="AC15" t="n">
-        <v>6168</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1256</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,251412;31,17053;41,23393</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,70181</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,12595;31,2566;41,1615</t>
+          <t>21,28320;31,1921;41,2690</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,12595;31,2566;41,1615</t>
+          <t>21,0;31,0;41,8072</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6297;31,1283;41,807</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>251412.37720678</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>17053.97924346</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>23393.79811637</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>70181.39434911001</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>12595</v>
+        <v>28320.84909931</v>
       </c>
       <c r="X16" t="n">
-        <v>2566</v>
+        <v>1921.26898002</v>
       </c>
       <c r="Y16" t="n">
-        <v>1615</v>
+        <v>2690.71562661</v>
       </c>
       <c r="Z16" t="n">
-        <v>12595</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2566</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1615</v>
+        <v>8072.14687983</v>
       </c>
       <c r="AC16" t="n">
-        <v>6297</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,256609;31,17421;41,24028</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,72086</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,12851;31,2620;41,1658</t>
+          <t>21,28898;31,1961;41,2762</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,12851;31,2620;41,1658</t>
+          <t>21,0;31,0;41,8287</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,6425;31,1310;41,829</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>256609.81870238</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>17421.85176142</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>24028.74650044</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>72086.23950132</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>12851</v>
+        <v>28898.53275551</v>
       </c>
       <c r="X17" t="n">
-        <v>2620</v>
+        <v>1961.98861654</v>
       </c>
       <c r="Y17" t="n">
-        <v>1658</v>
+        <v>2762.47323132</v>
       </c>
       <c r="Z17" t="n">
-        <v>12851</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>1658</v>
+        <v>8287.419693960001</v>
       </c>
       <c r="AC17" t="n">
-        <v>6425</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>829</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,22 +5447,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14379</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1345</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2770</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -5501,22 +5501,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7554</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -5556,27 +5556,27 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
+          <t>21,14379;31,977;41,1345;22,90;32,30;42,66</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2770;22,0;32,0;42,199</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,7554;31,542;41,558;22,78;32,26;42,58</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,1149;22,0;32,0;42,174</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -5590,22 +5590,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>28758</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1954</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2691</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5540</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -5644,22 +5644,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>8639</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1409</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
@@ -5699,27 +5699,27 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
+          <t>21,28758;31,1954;41,2691;22,180;32,60;42,133</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,5540;22,0;32,0;42,399</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,8639;31,602;41,684;22,157;32,52;42,116</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,1409;22,0;32,0;42,349</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -5733,22 +5733,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>43137</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2932</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4037</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5787,22 +5787,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>10462</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -5842,27 +5842,27 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
+          <t>21,43137;31,2932;41,4037;22,270;32,90;42,199</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,8311;22,0;32,0;42,599</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,10462;31,708;41,903;22,236;32,78;42,174</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,1859;22,0;32,0;42,524</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -5876,22 +5876,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>57516</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3909</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5383</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11081</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>799</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -5930,22 +5930,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>11201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -5985,27 +5985,27 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
+          <t>21,57516;31,3909;41,5383;22,360;32,120;42,266</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,11081;22,0;32,0;42,799</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,11201;31,759;41,982;22,315;32,105;42,233</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,2022;22,0;32,0;42,699</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -6019,22 +6019,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>71895</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4887</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6729</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>13852</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -6073,22 +6073,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>11987</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>2196</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -6128,27 +6128,27 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
+          <t>21,71895;31,4887;41,6729;22,450;32,150;42,333</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,13852;22,0;32,0;42,999</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,11987;31,813;41,1067;22,393;32,131;42,291</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,2196;22,0;32,0;42,874</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -6162,22 +6162,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>86274</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5864</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8075</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>16622</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1199</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -6216,22 +6216,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>12824</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>2382</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -6271,27 +6271,27 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
+          <t>21,86274;31,5864;41,8075;22,540;32,180;42,399</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,16622;22,0;32,0;42,1199</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,12824;31,870;41,1157;22,472;32,157;42,349</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,2382;22,0;32,0;42,1049</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -6305,22 +6305,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>100654</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6841</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9421</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>19392</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -6359,22 +6359,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>13714</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1254</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>2582</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -6414,27 +6414,27 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
+          <t>21,100654;31,6841;41,9421;22,630;32,210;42,466</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,19392;22,0;32,0;42,1399</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,13714;31,931;41,1254;22,551;32,183;42,408</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,2582;22,0;32,0;42,1224</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -6448,22 +6448,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>115033</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7819</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10767</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>22163</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -6502,22 +6502,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2922</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -6557,27 +6557,27 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
+          <t>21,115033;31,7819;41,10767;22,708;32,236;42,524</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,22163;22,0;32,0;42,1574</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,15216;31,1034;41,1419;22,630;32,210;42,466</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,2922;22,0;32,0;42,1399</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -6591,22 +6591,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>129412</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8796</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12113</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24933</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -6645,22 +6645,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>16476</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>708</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>3203</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -6700,27 +6700,27 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
+          <t>21,129412;31,8796;41,12113;22,753;32,251;42,558</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,24933;22,0;32,0;42,1674</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,16476;31,1120;41,1556;22,708;32,236;42,524</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,3203;22,0;32,0;42,1574</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -6734,22 +6734,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>143791</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9774</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>13459</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>27704</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -6788,22 +6788,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17763</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1697</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>3493</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
@@ -6843,27 +6843,27 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
+          <t>21,143791;31,9774;41,13459;22,787;32,262;42,583</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,27704;22,0;32,0;42,1749</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
           <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
-        </is>
-      </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,17763;31,1207;41,1697;22,787;32,262;42,583</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,0;41,3493;22,0;32,0;42,1749</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -7179,13 +7179,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5290319.965694</v>
+        <v>5690720.78439638</v>
       </c>
       <c r="U2" t="n">
-        <v>823849.0982913</v>
+        <v>851044.95005272</v>
       </c>
       <c r="V2" t="n">
-        <v>671465.7947263999</v>
+        <v>708953.5412268399</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -7226,8 +7226,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,99790</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>10219532.30779</v>
       </c>
@@ -7247,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>803606.738233708</v>
       </c>
       <c r="AS2" t="n">
-        <v>14851764.56358077</v>
+        <v>15655371.30181448</v>
       </c>
     </row>
     <row r="3">
@@ -7314,13 +7322,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>682062.214863</v>
+        <v>728723.7476185099</v>
       </c>
       <c r="U3" t="n">
-        <v>110583.3724381</v>
+        <v>113752.36105464</v>
       </c>
       <c r="V3" t="n">
-        <v>94205.93297920001</v>
+        <v>98665.40621052001</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7361,8 +7369,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,11780</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1157187.18533</v>
       </c>
@@ -7382,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>94169.52528972601</v>
       </c>
       <c r="AS3" t="n">
-        <v>2002729.09931629</v>
+        <v>2096898.624606016</v>
       </c>
     </row>
     <row r="4">
@@ -7854,13 +7870,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>55897.7588</v>
+        <v>70595.98662919999</v>
       </c>
       <c r="U7" t="n">
-        <v>9666.674999999999</v>
+        <v>10666.675025</v>
       </c>
       <c r="V7" t="n">
-        <v>4996.362</v>
+        <v>6362.7615892</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7901,8 +7917,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2834</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>107838.3978</v>
       </c>
@@ -7922,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>29455.0256396</v>
       </c>
       <c r="AS7" t="n">
-        <v>156132.3978</v>
+        <v>185587.4234396</v>
       </c>
     </row>
     <row r="8">
@@ -7989,13 +8013,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56252.456388</v>
+        <v>85648.9120464</v>
       </c>
       <c r="U8" t="n">
-        <v>9689.675024999999</v>
+        <v>11689.675075</v>
       </c>
       <c r="V8" t="n">
-        <v>5022.300896</v>
+        <v>7756.424310599999</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8036,8 +8060,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,5669</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>107838.3978</v>
       </c>
@@ -8057,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>58917.66563735</v>
       </c>
       <c r="AS8" t="n">
-        <v>156794.9442125</v>
+        <v>215712.60984985</v>
       </c>
     </row>
     <row r="9">
@@ -8259,13 +8291,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>232937.58613</v>
+        <v>248748.731947</v>
       </c>
       <c r="U10" t="n">
-        <v>39408.29281599999</v>
+        <v>40482.31363199999</v>
       </c>
       <c r="V10" t="n">
-        <v>23417.3936144</v>
+        <v>24873.33904878</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -8306,8 +8338,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,3104</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>479757.1970250001</v>
       </c>
@@ -8327,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>31593.575695085</v>
       </c>
       <c r="AS10" t="n">
-        <v>650817.8198431999</v>
+        <v>682411.3955382849</v>
       </c>
     </row>
     <row r="11">
@@ -8394,13 +8434,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>248850.31743</v>
+        <v>327906.046515</v>
       </c>
       <c r="U11" t="n">
-        <v>40378.500976</v>
+        <v>45750.60505599999</v>
       </c>
       <c r="V11" t="n">
-        <v>24762.1867584</v>
+        <v>32050.95690459</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -8441,8 +8481,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,15531</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>479757.1970250001</v>
       </c>
@@ -8462,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>158033.6755775925</v>
       </c>
       <c r="AS11" t="n">
-        <v>681595.0480252</v>
+        <v>839628.7236027925</v>
       </c>
     </row>
     <row r="12">
@@ -8529,13 +8577,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>264763.04873</v>
+        <v>343818.777815</v>
       </c>
       <c r="U12" t="n">
-        <v>41348.709136</v>
+        <v>46720.813216</v>
       </c>
       <c r="V12" t="n">
-        <v>26106.9799024</v>
+        <v>33395.75004859</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -8576,8 +8624,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,15531</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>479757.1970250001</v>
       </c>
@@ -8597,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>158033.6755775925</v>
       </c>
       <c r="AS12" t="n">
-        <v>712372.2762072</v>
+        <v>870405.9517847926</v>
       </c>
     </row>
     <row r="13">
@@ -8664,13 +8720,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>280675.78003</v>
+        <v>436990.0995631</v>
       </c>
       <c r="U13" t="n">
-        <v>42318.917296</v>
+        <v>52940.2324224</v>
       </c>
       <c r="V13" t="n">
-        <v>27451.7730464</v>
+        <v>41890.79105009</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -8711,8 +8767,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,30644</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>479757.1970250001</v>
       </c>
@@ -8732,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>312625.7474264775</v>
       </c>
       <c r="AS13" t="n">
-        <v>743149.5043892001</v>
+        <v>1055775.251815678</v>
       </c>
     </row>
     <row r="14">
@@ -8799,13 +8863,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>280675.78003</v>
+        <v>359731.509115</v>
       </c>
       <c r="U14" t="n">
-        <v>42318.917296</v>
+        <v>47691.021376</v>
       </c>
       <c r="V14" t="n">
-        <v>27451.7730464</v>
+        <v>34740.54319259</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -8846,8 +8910,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,15531</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>479757.1970250001</v>
       </c>
@@ -8867,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>158033.6755775925</v>
       </c>
       <c r="AS14" t="n">
-        <v>742911.5043892001</v>
+        <v>900945.1799667926</v>
       </c>
     </row>
     <row r="15">
@@ -8934,13 +9006,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>419114.614744</v>
+        <v>518240.3103136</v>
       </c>
       <c r="U15" t="n">
-        <v>63263.4833138</v>
+        <v>69999.1820326</v>
       </c>
       <c r="V15" t="n">
-        <v>47217.2459712</v>
+        <v>56415.49638326</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -8981,8 +9053,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,19997</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>734842.46449</v>
       </c>
@@ -9002,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>198491.956598665</v>
       </c>
       <c r="AS15" t="n">
-        <v>1139995.31394362</v>
+        <v>1338487.270542285</v>
       </c>
     </row>
     <row r="16">
@@ -9069,13 +9149,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>419114.614744</v>
+        <v>534762.2595752</v>
       </c>
       <c r="U16" t="n">
-        <v>63263.4833138</v>
+        <v>71121.46515239999</v>
       </c>
       <c r="V16" t="n">
-        <v>47217.2459712</v>
+        <v>57950.11236724</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -9116,8 +9196,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,23330</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>734842.46449</v>
       </c>
@@ -9137,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>231581.70129477</v>
       </c>
       <c r="AS16" t="n">
-        <v>1140233.31394362</v>
+        <v>1371815.01523839</v>
       </c>
     </row>
     <row r="17">
@@ -9204,13 +9292,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1065679.018407</v>
+        <v>1217986.05756976</v>
       </c>
       <c r="U17" t="n">
-        <v>152805.1887716</v>
+        <v>163155.97839192</v>
       </c>
       <c r="V17" t="n">
-        <v>144676.0848</v>
+        <v>159144.88804</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -9251,8 +9339,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,33282</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1673730.43098</v>
       </c>
@@ -9272,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>306923.1061729681</v>
       </c>
       <c r="AS17" t="n">
-        <v>2965975.80853104</v>
+        <v>3272898.914704008</v>
       </c>
     </row>
     <row r="18">
@@ -9339,13 +9435,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5290319.965694</v>
+        <v>5690720.78439638</v>
       </c>
       <c r="U18" t="n">
-        <v>823849.0982913</v>
+        <v>851044.95005272</v>
       </c>
       <c r="V18" t="n">
-        <v>671465.7947263999</v>
+        <v>708953.5412268399</v>
       </c>
       <c r="W18" t="n">
         <v>1940</v>
@@ -9386,8 +9482,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,99790</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>10219532.30779</v>
       </c>
@@ -9407,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>803606.738233708</v>
       </c>
       <c r="AS18" t="n">
-        <v>14851764.56358077</v>
+        <v>15655371.30181448</v>
       </c>
     </row>
     <row r="19">
@@ -9474,13 +9578,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8750700.195627</v>
+        <v>9151101.014329379</v>
       </c>
       <c r="U19" t="n">
-        <v>1358865.6189127</v>
+        <v>1386061.47067412</v>
       </c>
       <c r="V19" t="n">
-        <v>1109474.1275648</v>
+        <v>1146961.87406524</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
@@ -9521,8 +9625,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,99790</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>16587809.76481</v>
       </c>
@@ -9542,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>803606.738233708</v>
       </c>
       <c r="AS19" t="n">
-        <v>24525400.69962223</v>
+        <v>25329007.43785594</v>
       </c>
     </row>
     <row r="20">
@@ -9609,13 +9721,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>202794.593957</v>
+        <v>211658.03319746</v>
       </c>
       <c r="U20" t="n">
-        <v>39728.30737729999</v>
+        <v>40364.38255095999</v>
       </c>
       <c r="V20" t="n">
-        <v>20107.9445056</v>
+        <v>20763.11720216</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9656,8 +9768,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,1440</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>514697.86439</v>
       </c>
@@ -9677,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>17019.600943934</v>
       </c>
       <c r="AS20" t="n">
-        <v>597346.09576757</v>
+        <v>614365.696711504</v>
       </c>
     </row>
     <row r="21">
@@ -9744,13 +9864,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>274835.216808</v>
+        <v>286568.33627096</v>
       </c>
       <c r="U21" t="n">
-        <v>48146.96653120001</v>
+        <v>48963.54061248001</v>
       </c>
       <c r="V21" t="n">
-        <v>28686.1800448</v>
+        <v>29616.87387616</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9791,8 +9911,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,2151</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>604909.55316</v>
       </c>
@@ -9812,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>22718.970154112</v>
       </c>
       <c r="AS21" t="n">
-        <v>779347.0711308802</v>
+        <v>802066.0412849921</v>
       </c>
     </row>
     <row r="22">
@@ -9879,13 +10007,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>394388.96247</v>
+        <v>416016.5435651001</v>
       </c>
       <c r="U22" t="n">
-        <v>62666.8557631</v>
+        <v>64132.66038257</v>
       </c>
       <c r="V22" t="n">
-        <v>43426.8424528</v>
+        <v>45339.70676391001</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -9926,8 +10054,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,4736</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>757114.198605</v>
       </c>
@@ -9947,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>42740.60275832551</v>
       </c>
       <c r="AS22" t="n">
-        <v>1088682.61133899</v>
+        <v>1131423.214097316</v>
       </c>
     </row>
     <row r="23">
@@ -10014,13 +10150,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>463232.513388</v>
+        <v>491591.39994348</v>
       </c>
       <c r="U23" t="n">
-        <v>71525.6989174</v>
+        <v>73446.38399534</v>
       </c>
       <c r="V23" t="n">
-        <v>53299.0853984</v>
+        <v>55866.20742104</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -10061,8 +10197,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,6521</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>824832.451195</v>
       </c>
@@ -10082,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>56372.565223446</v>
       </c>
       <c r="AS23" t="n">
-        <v>1276331.07695886</v>
+        <v>1332703.642182306</v>
       </c>
     </row>
     <row r="24">
@@ -10149,13 +10293,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>534626.6333</v>
+        <v>568641.67139</v>
       </c>
       <c r="U24" t="n">
-        <v>84319.70633419999</v>
+        <v>86630.70435159998</v>
       </c>
       <c r="V24" t="n">
-        <v>66770.5494624</v>
+        <v>69919.33360098</v>
       </c>
       <c r="W24" t="n">
         <v>1940</v>
@@ -10196,8 +10340,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,8115</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>932246.522835</v>
       </c>
@@ -10217,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>68066.433206895</v>
       </c>
       <c r="AS24" t="n">
-        <v>1514416.76641478</v>
+        <v>1582483.199621675</v>
       </c>
     </row>
     <row r="25">
@@ -10284,13 +10436,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>682062.214863</v>
+        <v>728723.7476185099</v>
       </c>
       <c r="U25" t="n">
-        <v>110583.3724381</v>
+        <v>113752.36105464</v>
       </c>
       <c r="V25" t="n">
-        <v>94205.93297920001</v>
+        <v>98665.40621052001</v>
       </c>
       <c r="W25" t="n">
         <v>1940</v>
@@ -10331,8 +10483,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,11780</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1157187.18533</v>
       </c>
@@ -10352,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>94169.52528972601</v>
       </c>
       <c r="AS25" t="n">
-        <v>2002729.09931629</v>
+        <v>2096898.624606016</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/92.xlsx
+++ b/opm_hero_property/heroes/92.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>92</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5690720.78439638</v>
+        <v>6473266.39298838</v>
       </c>
       <c r="U2" t="n">
-        <v>851044.95005272</v>
+        <v>1010633.44398072</v>
       </c>
       <c r="V2" t="n">
-        <v>708953.5412268399</v>
+        <v>807871.0921708399</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>10219532.30779</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2026538.95579077</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2828026.5846232</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1634985.55</v>
+      </c>
+      <c r="AU2" t="n">
         <v>803606.738233708</v>
       </c>
-      <c r="AS2" t="n">
-        <v>15655371.30181448</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18107853.43643768</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>92</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>728723.7476185099</v>
+        <v>816850.6386025099</v>
       </c>
       <c r="U3" t="n">
-        <v>113752.36105464</v>
+        <v>131724.16599064</v>
       </c>
       <c r="V3" t="n">
-        <v>98665.40621052001</v>
+        <v>110037.10704252</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1157187.18533</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>230767.06398629</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>524363.7748264</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>185010.65</v>
+      </c>
+      <c r="AU3" t="n">
         <v>94169.52528972601</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2096898.624606016</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2374418.249432416</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>92</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7387.9028</v>
+        <v>7799.9028</v>
       </c>
       <c r="U4" t="n">
-        <v>1554.186</v>
+        <v>1638.186</v>
       </c>
       <c r="V4" t="n">
-        <v>516.7471</v>
+        <v>568.7471</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18313.682025</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>22812.582025</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1290.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24103.182025</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>92</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19532.0351</v>
+        <v>31646.0351</v>
       </c>
       <c r="U5" t="n">
-        <v>3875.3512</v>
+        <v>6345.3512</v>
       </c>
       <c r="V5" t="n">
-        <v>1523.007</v>
+        <v>3054.007</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>45819.14863</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>57725.94863</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>37960.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>95686.19863</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>92</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55897.7588</v>
+        <v>107832.7588</v>
       </c>
       <c r="U6" t="n">
-        <v>9666.674999999999</v>
+        <v>20257.675</v>
       </c>
       <c r="V6" t="n">
-        <v>4996.362</v>
+        <v>11560.362</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>107838.3978</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>155894.3978</v>
+      <c r="AT6" t="n">
+        <v>162755.9</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>318650.2977999999</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>92</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>70595.98662919999</v>
+        <v>122530.9866292</v>
       </c>
       <c r="U7" t="n">
-        <v>10666.675025</v>
+        <v>21257.675025</v>
       </c>
       <c r="V7" t="n">
-        <v>6362.7615892</v>
+        <v>12926.7615892</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>107838.3978</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>162755.9</v>
+      </c>
+      <c r="AU7" t="n">
         <v>29455.0256396</v>
       </c>
-      <c r="AS7" t="n">
-        <v>185587.4234396</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>348343.3234396</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>92</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>85648.9120464</v>
+        <v>137583.9120464</v>
       </c>
       <c r="U8" t="n">
-        <v>11689.675075</v>
+        <v>22280.675075</v>
       </c>
       <c r="V8" t="n">
-        <v>7756.424310599999</v>
+        <v>14320.4243106</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>107838.3978</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>662.5464125000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>162755.9</v>
+      </c>
+      <c r="AU8" t="n">
         <v>58917.66563735</v>
       </c>
-      <c r="AS8" t="n">
-        <v>215712.60984985</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>378468.50984985</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>92</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>231346.313</v>
+        <v>391419.58613</v>
       </c>
       <c r="U9" t="n">
-        <v>39311.272</v>
+        <v>69395.67472</v>
       </c>
       <c r="V9" t="n">
-        <v>23282.9143</v>
+        <v>42889.013443</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>479757.1970250001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>647783.847025</v>
+        <v>43535.32197025</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>381373.8</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1128294.56899525</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>92</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>248748.731947</v>
+        <v>465777.761168386</v>
       </c>
       <c r="U10" t="n">
-        <v>40482.31363199999</v>
+        <v>79828.68614067198</v>
       </c>
       <c r="V10" t="n">
-        <v>24873.33904878</v>
+        <v>50777.26807923205</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>479757.1970250001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3033.9728182</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>43535.32197025</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>381373.8</v>
+      </c>
+      <c r="AU10" t="n">
         <v>31593.575695085</v>
       </c>
-      <c r="AS10" t="n">
-        <v>682411.3955382849</v>
+      <c r="AV10" t="n">
+        <v>251423.469486072</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1319997.986994607</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>92</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>327906.046515</v>
+        <v>610534.6273986099</v>
       </c>
       <c r="U11" t="n">
-        <v>45750.60505599999</v>
+        <v>93997.324055936</v>
       </c>
       <c r="V11" t="n">
-        <v>32050.95690459</v>
+        <v>65210.08305644662</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2260</v>
+        <v>2300</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>479757.1970250001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>33811.2010002</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>43535.32197025</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>381373.8</v>
+      </c>
+      <c r="AU11" t="n">
         <v>158033.6755775925</v>
       </c>
-      <c r="AS11" t="n">
-        <v>839628.7236027925</v>
+      <c r="AV11" t="n">
+        <v>420152.7953860938</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1645944.640959136</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>92</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>343818.777815</v>
+        <v>709215.2400148449</v>
       </c>
       <c r="U12" t="n">
-        <v>46720.813216</v>
+        <v>104408.701470656</v>
       </c>
       <c r="V12" t="n">
-        <v>33395.75004859</v>
+        <v>77268.3108576368</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2510</v>
+        <v>2590</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>479757.1970250001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>64588.4291822</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>43535.32197025</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>381373.8</v>
+      </c>
+      <c r="AU12" t="n">
         <v>158033.6755775925</v>
       </c>
-      <c r="AS12" t="n">
-        <v>870405.9517847926</v>
+      <c r="AV12" t="n">
+        <v>629786.9938387403</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1886356.067593783</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>92</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>436990.0995631</v>
+        <v>900415.175519655</v>
       </c>
       <c r="U13" t="n">
-        <v>52940.2324224</v>
+        <v>123606.9924803904</v>
       </c>
       <c r="V13" t="n">
-        <v>41890.79105009</v>
+        <v>96973.61558119979</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>479757.1970250001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>95365.65736420001</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>43535.32197025</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>381373.8</v>
+      </c>
+      <c r="AU13" t="n">
         <v>312625.7474264775</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1055775.251815678</v>
+      <c r="AV13" t="n">
+        <v>882188.8394403199</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2324127.213226248</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>92</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>359731.509115</v>
+        <v>954372.49979276</v>
       </c>
       <c r="U14" t="n">
-        <v>47691.021376</v>
+        <v>133078.450274304</v>
       </c>
       <c r="V14" t="n">
-        <v>34740.54319259</v>
+        <v>100035.2177516442</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>2690</v>
+        <v>2890</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>479757.1970250001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>95365.65736420001</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43297.32197025</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>381373.8</v>
+      </c>
+      <c r="AU14" t="n">
         <v>158033.6755775925</v>
       </c>
-      <c r="AS14" t="n">
-        <v>900945.1799667926</v>
+      <c r="AV14" t="n">
+        <v>1173695.506820369</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2460803.808757411</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>92</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>518240.3103136</v>
+        <v>1493096.426056749</v>
       </c>
       <c r="U15" t="n">
-        <v>69999.1820326</v>
+        <v>222549.017696122</v>
       </c>
       <c r="V15" t="n">
-        <v>56415.49638326</v>
+        <v>168084.1739256242</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2830</v>
+        <v>3230</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>734842.46449</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>146311.04945362</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>126142.3492898</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>697781.4</v>
+      </c>
+      <c r="AU15" t="n">
         <v>198491.956598665</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1338487.270542285</v>
+      <c r="AV15" t="n">
+        <v>1958283.128400245</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4009232.14823233</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>92</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>534762.2595752</v>
+        <v>1538581.013485769</v>
       </c>
       <c r="U16" t="n">
-        <v>71121.46515239999</v>
+        <v>227877.5729428584</v>
       </c>
       <c r="V16" t="n">
-        <v>57950.11236724</v>
+        <v>172796.1247193991</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>734842.46449</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>146311.04945362</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>126380.3492898</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>697781.4</v>
+      </c>
+      <c r="AU16" t="n">
         <v>231581.70129477</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1371815.01523839</v>
+      <c r="AV16" t="n">
+        <v>2035738.719399847</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4120015.483928037</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>92</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1217986.05756976</v>
+        <v>2784889.665004319</v>
       </c>
       <c r="U17" t="n">
-        <v>163155.97839192</v>
+        <v>400898.1418411942</v>
       </c>
       <c r="V17" t="n">
-        <v>159144.88804</v>
+        <v>341017.87786688</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>3180</v>
+        <v>3980</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1673730.43098</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>334099.02755104</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>755205.4172392001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1114892.35</v>
+      </c>
+      <c r="AU17" t="n">
         <v>306923.1061729681</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3272898.914704008</v>
+      <c r="AV17" t="n">
+        <v>3073685.659499912</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7528393.14144312</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>92</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5690720.78439638</v>
+        <v>9695940.052582381</v>
       </c>
       <c r="U18" t="n">
-        <v>851044.95005272</v>
+        <v>1398431.790370445</v>
       </c>
       <c r="V18" t="n">
-        <v>708953.5412268399</v>
+        <v>1126361.625046999</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>3740</v>
+        <v>4540</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>10219532.30779</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2026538.95579077</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2828026.5846232</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1634985.55</v>
+      </c>
+      <c r="AU18" t="n">
         <v>803606.738233708</v>
       </c>
-      <c r="AS18" t="n">
-        <v>15655371.30181448</v>
+      <c r="AV18" t="n">
+        <v>7732202.813721017</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>25840056.25015869</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>92</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9151101.014329379</v>
+        <v>16449336.4917319</v>
       </c>
       <c r="U19" t="n">
-        <v>1386061.47067412</v>
+        <v>2499934.870850798</v>
       </c>
       <c r="V19" t="n">
-        <v>1146961.87406524</v>
+        <v>2004071.204739004</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>4650</v>
+        <v>5450</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>16587809.76481</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3287717.93481223</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>5962187.9147215</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1634985.55</v>
+      </c>
+      <c r="AU19" t="n">
         <v>803606.738233708</v>
       </c>
-      <c r="AS19" t="n">
-        <v>25329007.43785594</v>
+      <c r="AV19" t="n">
+        <v>15791707.32527425</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>45243748.02785169</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>92</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>211658.03319746</v>
+        <v>217506.03319746</v>
       </c>
       <c r="U20" t="n">
-        <v>40364.38255095999</v>
+        <v>41556.38255095999</v>
       </c>
       <c r="V20" t="n">
-        <v>20763.11720216</v>
+        <v>21517.11720216</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>514697.86439</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3198.43137757</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>18408.3</v>
+      </c>
+      <c r="AU20" t="n">
         <v>17019.600943934</v>
       </c>
-      <c r="AS20" t="n">
-        <v>614365.696711504</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>632773.9967115039</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>92</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>286568.33627096</v>
+        <v>298686.11299896</v>
       </c>
       <c r="U21" t="n">
-        <v>48963.54061248001</v>
+        <v>51445.18307648</v>
       </c>
       <c r="V21" t="n">
-        <v>29616.87387616</v>
+        <v>31138.54097216</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>604909.55316</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>42272.86797088</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>70069.64553160001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>31949.85</v>
+      </c>
+      <c r="AU21" t="n">
         <v>22718.970154112</v>
       </c>
-      <c r="AS21" t="n">
-        <v>802066.0412849921</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>840056.736816592</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>92</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>416016.5435651001</v>
+        <v>542445.1943693537</v>
       </c>
       <c r="U22" t="n">
-        <v>64132.66038257</v>
+        <v>82537.57626565517</v>
       </c>
       <c r="V22" t="n">
-        <v>45339.70676391001</v>
+        <v>59427.46185484246</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>757114.198605</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>102130.91273399</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>99458.09198605001</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>43148.60000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>42740.60275832551</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1131423.214097316</v>
+      <c r="AV22" t="n">
+        <v>284315.6701843529</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1466450.376267719</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>92</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>491591.39994348</v>
+        <v>708903.1638824441</v>
       </c>
       <c r="U23" t="n">
-        <v>73446.38399534</v>
+        <v>108000.0232055738</v>
       </c>
       <c r="V23" t="n">
-        <v>55866.20742104</v>
+        <v>80523.08662728671</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>824832.451195</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>164305.37576386</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>159150.1490239</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>78954.95000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>56372.565223446</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1332703.642182306</v>
+      <c r="AV23" t="n">
+        <v>504473.8309015958</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1932612.572107802</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>92</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>568641.67139</v>
+        <v>889044.06434774</v>
       </c>
       <c r="U24" t="n">
-        <v>86630.70435159998</v>
+        <v>138140.0414038132</v>
       </c>
       <c r="V24" t="n">
-        <v>69919.33360098</v>
+        <v>107507.6410670753</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>3180</v>
+        <v>3980</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>932246.522835</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>185769.99357978</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>276324.4609134</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>126156.75</v>
+      </c>
+      <c r="AU24" t="n">
         <v>68066.433206895</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1582483.199621675</v>
+      <c r="AV24" t="n">
+        <v>730935.9756346592</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2476832.786169734</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>92</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>728723.7476185099</v>
+        <v>1519120.982240535</v>
       </c>
       <c r="U25" t="n">
-        <v>113752.36105464</v>
+        <v>232223.270512325</v>
       </c>
       <c r="V25" t="n">
-        <v>98665.40621052001</v>
+        <v>191441.5214623564</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>3740</v>
+        <v>4540</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1157187.18533</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>230767.06398629</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>524363.7748264</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>185010.65</v>
+      </c>
+      <c r="AU25" t="n">
         <v>94169.52528972601</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2096898.624606016</v>
+      <c r="AV25" t="n">
+        <v>1866189.547751711</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4240607.797184126</v>
       </c>
     </row>
   </sheetData>
